--- a/server/questionbank/upload_question_file/question_files/UHS__2012.xlsx
+++ b/server/questionbank/upload_question_file/question_files/UHS__2012.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Work\Websites\Educational_Websites\Prelevels\Helping Stuff\CSV Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Work\Websites\Educational_Websites\Prelevels\Code\prelevels\server\questionbank\upload_question_file\question_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A65C8FD-1275-457D-9933-9114115C2C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E673A60-C733-4789-8844-CF8623E67447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="127">
   <si>
     <t>A</t>
   </si>
@@ -409,7 +409,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -433,6 +433,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -448,7 +453,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -484,35 +489,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -524,12 +505,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -754,7 +729,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="J15" sqref="J15:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1513,7 +1488,9 @@
       <c r="I16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="5"/>
+      <c r="J16" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -1559,7 +1536,9 @@
       <c r="I17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J17" s="5"/>
+      <c r="J17" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1605,7 +1584,9 @@
       <c r="I18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="5"/>
+      <c r="J18" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -1651,7 +1632,9 @@
       <c r="I19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J19" s="6"/>
+      <c r="J19" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -29138,9 +29121,7 @@
       <c r="Z1000" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="J15:J19"/>
-  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I2:I1000" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Biology,Chemistry,Physics,English,Logical Reasoning"</formula1>
